--- a/03. SourceCode/BKI_HRM/bin/Debug/Reports/Templates/f404_qua_trinh_cong_tac.xlsx
+++ b/03. SourceCode/BKI_HRM/bin/Debug/Reports/Templates/f404_qua_trinh_cong_tac.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Mã nhân viên</t>
   </si>
@@ -42,10 +42,16 @@
     <t>Vai trò</t>
   </si>
   <si>
-    <t>Tỷ lệ tham gia(%)</t>
-  </si>
-  <si>
     <t>Mã quyết định</t>
+  </si>
+  <si>
+    <t>Tỷ lệ tham gia</t>
+  </si>
+  <si>
+    <t>Loại quyết định</t>
+  </si>
+  <si>
+    <t>Mã quyết định miễn nhiệm</t>
   </si>
 </sst>
 </file>
@@ -65,7 +71,7 @@
       <sz val="8"/>
       <color indexed="9"/>
       <name val="Tahoma"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -93,15 +99,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -403,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J2"/>
+  <dimension ref="A2:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -414,19 +417,19 @@
     <col min="1" max="1" width="13.28515625" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" style="3"/>
+    <col min="4" max="5" width="9.140625" style="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
     <col min="10" max="10" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -435,20 +438,26 @@
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>9</v>
+      <c r="K2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/03. SourceCode/BKI_HRM/bin/Debug/Reports/Templates/f404_qua_trinh_cong_tac.xlsx
+++ b/03. SourceCode/BKI_HRM/bin/Debug/Reports/Templates/f404_qua_trinh_cong_tac.xlsx
@@ -409,7 +409,7 @@
   <dimension ref="A2:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="A2" sqref="A2:L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
